--- a/src/experiment/results/experiment_results_diabetes.xlsx
+++ b/src/experiment/results/experiment_results_diabetes.xlsx
@@ -529,7 +529,7 @@
         <v>0.7398682403538015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05398058891296387</v>
+        <v>0.05494446754455566</v>
       </c>
       <c r="H2" t="n">
         <v>4.9</v>
@@ -573,7 +573,7 @@
         <v>0.7337913670605216</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05665161609649658</v>
+        <v>0.05740792751312256</v>
       </c>
       <c r="H3" t="n">
         <v>5.2</v>
@@ -617,7 +617,7 @@
         <v>0.7063125725639964</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05475790500640869</v>
+        <v>0.05857288837432861</v>
       </c>
       <c r="H4" t="n">
         <v>5.1</v>
@@ -661,7 +661,7 @@
         <v>0.6705989704546614</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0553753137588501</v>
+        <v>0.05941174030303955</v>
       </c>
       <c r="H5" t="n">
         <v>5.8</v>
@@ -705,7 +705,7 @@
         <v>0.7425491714241624</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05401937961578369</v>
+        <v>0.05581338405609131</v>
       </c>
       <c r="H6" t="n">
         <v>8</v>
@@ -749,7 +749,7 @@
         <v>0.7356225622670095</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05946059226989746</v>
+        <v>0.05939230918884277</v>
       </c>
       <c r="H7" t="n">
         <v>8</v>
@@ -793,7 +793,7 @@
         <v>0.710787113560842</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05776596069335938</v>
+        <v>0.06245007514953613</v>
       </c>
       <c r="H8" t="n">
         <v>8</v>
@@ -837,7 +837,7 @@
         <v>0.6685094753386631</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05780653953552246</v>
+        <v>0.07069416046142578</v>
       </c>
       <c r="H9" t="n">
         <v>8</v>
@@ -881,7 +881,7 @@
         <v>0.7497764153808253</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1045501708984375</v>
+        <v>0.10693519115448</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -927,7 +927,7 @@
         <v>0.7327221711639617</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08057057857513428</v>
+        <v>0.08512425422668457</v>
       </c>
       <c r="H11" t="n">
         <v>5</v>
@@ -973,7 +973,7 @@
         <v>0.7180875883581256</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1093497037887573</v>
+        <v>0.3723389148712158</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -1019,7 +1019,7 @@
         <v>0.6678681095797897</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1158817768096924</v>
+        <v>1.068843102455139</v>
       </c>
       <c r="H13" t="n">
         <v>5</v>
@@ -1065,7 +1065,7 @@
         <v>0.7442003138198803</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1214303731918335</v>
+        <v>0.1499184846878052</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
@@ -1113,7 +1113,7 @@
         <v>0.7356098088737074</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1452691793441772</v>
+        <v>0.1504501342773437</v>
       </c>
       <c r="H15" t="n">
         <v>5</v>
@@ -1161,7 +1161,7 @@
         <v>0.7248834063873262</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1546825170516968</v>
+        <v>0.1803022146224976</v>
       </c>
       <c r="H16" t="n">
         <v>4</v>
@@ -1209,7 +1209,7 @@
         <v>0.6802849288135069</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1550402402877808</v>
+        <v>0.1835521697998047</v>
       </c>
       <c r="H17" t="n">
         <v>5</v>
@@ -1257,7 +1257,7 @@
         <v>0.7430892154785979</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1036131143569946</v>
+        <v>0.1125899791717529</v>
       </c>
       <c r="H18" t="n">
         <v>8</v>
@@ -1303,7 +1303,7 @@
         <v>0.7377554255862246</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1038651466369629</v>
+        <v>0.1321707248687744</v>
       </c>
       <c r="H19" t="n">
         <v>8</v>
@@ -1349,7 +1349,7 @@
         <v>0.7150258291927007</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1039771556854248</v>
+        <v>0.1110882759094238</v>
       </c>
       <c r="H20" t="n">
         <v>8</v>
@@ -1395,7 +1395,7 @@
         <v>0.6763443962723714</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1038036346435547</v>
+        <v>0.1223333120346069</v>
       </c>
       <c r="H21" t="n">
         <v>8</v>
@@ -1441,7 +1441,7 @@
         <v>0.7304760140806467</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6022355794906616</v>
+        <v>0.7618449926376343</v>
       </c>
       <c r="H22" t="n">
         <v>4.6</v>
@@ -1485,7 +1485,7 @@
         <v>0.7267576197894152</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6006596803665161</v>
+        <v>0.7090542078018188</v>
       </c>
       <c r="H23" t="n">
         <v>4.6</v>
@@ -1529,7 +1529,7 @@
         <v>0.7028611390846795</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5996821880340576</v>
+        <v>0.6310038566589355</v>
       </c>
       <c r="H24" t="n">
         <v>4.6</v>
@@ -1573,7 +1573,7 @@
         <v>0.6657818058516467</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6008179426193238</v>
+        <v>0.6161215543746948</v>
       </c>
       <c r="H25" t="n">
         <v>5.1</v>
@@ -1617,7 +1617,7 @@
         <v>0.7446613080400866</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2510242462158203</v>
+        <v>0.2538771629333496</v>
       </c>
       <c r="H26" t="n">
         <v>4</v>
@@ -1663,7 +1663,7 @@
         <v>0.7384432978350075</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2557058811187744</v>
+        <v>0.2600462675094605</v>
       </c>
       <c r="H27" t="n">
         <v>4</v>
@@ -1709,7 +1709,7 @@
         <v>0.7197413885376412</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2541873693466187</v>
+        <v>0.2557586908340454</v>
       </c>
       <c r="H28" t="n">
         <v>4</v>
@@ -1755,7 +1755,7 @@
         <v>0.6705989704546614</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1544464111328125</v>
+        <v>0.1556327342987061</v>
       </c>
       <c r="H29" t="n">
         <v>5.8</v>

--- a/src/experiment/results/experiment_results_diabetes.xlsx
+++ b/src/experiment/results/experiment_results_diabetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,26 @@
           <t>n_features</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Top 10 Correlation Features</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap Count</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Overlap Ratio</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Common Features</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -548,6 +568,22 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -592,6 +628,22 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -636,6 +688,22 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -680,6 +748,22 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -724,6 +808,22 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -768,6 +868,22 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -812,6 +928,22 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -856,6 +988,22 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -902,6 +1050,22 @@
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>1, 2, 6</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -948,6 +1112,22 @@
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -994,6 +1174,22 @@
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>1, 2, 6</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1040,6 +1236,22 @@
       </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1088,6 +1300,22 @@
         <v>1</v>
       </c>
       <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1136,6 +1364,22 @@
         <v>0.5</v>
       </c>
       <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1184,6 +1428,22 @@
         <v>0.1</v>
       </c>
       <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>1, 2, 6</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1232,6 +1492,22 @@
         <v>0.1</v>
       </c>
       <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1278,6 +1554,22 @@
         <v>1</v>
       </c>
       <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1324,6 +1616,22 @@
         <v>0.1</v>
       </c>
       <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1370,6 +1678,22 @@
         <v>1</v>
       </c>
       <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1416,6 +1740,22 @@
         <v>0.5</v>
       </c>
       <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1460,6 +1800,22 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1504,6 +1860,22 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1548,6 +1920,22 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1592,6 +1980,22 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1638,6 +2042,22 @@
       <c r="N26" t="n">
         <v>4</v>
       </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>1, 2, 6</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1684,6 +2104,22 @@
       <c r="N27" t="n">
         <v>4</v>
       </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>1, 2, 6</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1729,6 +2165,22 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
         <v>4</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>1, 2, 6</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1776,6 +2228,22 @@
       <c r="N29" t="n">
         <v>6</v>
       </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>2, 6, 8, 1</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.6667</v>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>1, 2, 6, 8</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
